--- a/data/Carrier Mapping.xlsx
+++ b/data/Carrier Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tym.Teo\Documents\Delay Report - Rewrite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D449618-47F1-45F4-9507-EC5384949D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D1563-0DBA-4C2C-BBA5-6D798A7E8E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
   <si>
     <t>Booking Office</t>
   </si>
@@ -370,6 +370,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,13 +386,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,24 +702,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>66</v>
@@ -789,31 +789,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>67</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>67</v>
@@ -829,38 +829,61 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
     <sortCondition ref="A2"/>
   </sortState>
@@ -888,12 +911,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1841,15 +1864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B07C177EC98944892D6859FC7228F27" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa0312146baf983fe551619124602045">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cadb0006-b086-403f-9c46-c0186d7f6965" xmlns:ns3="4af93f69-0cef-4f40-803d-f637351e1512" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8aa75208339fe16869b5142f429bf55" ns2:_="" ns3:_="">
     <xsd:import namespace="cadb0006-b086-403f-9c46-c0186d7f6965"/>
@@ -2066,21 +2080,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01DD0693-FE4D-4885-BF24-94BEA9248921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FBAC62-C129-4627-A795-495E3326B79B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2099,11 +2114,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE68490-0574-4399-8E76-2FC2ACED3CAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01DD0693-FE4D-4885-BF24-94BEA9248921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>